--- a/lowe/edd/data/NEVADHWS.xlsx
+++ b/lowe/edd/data/NEVADHWS.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11835"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13950" windowHeight="6360"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1322,14 +1322,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:JH45"/>
+  <dimension ref="A1:JI45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="18" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.140625" customWidth="1"/>
     <col min="4" max="4" width="29" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="8.5703125" bestFit="1" customWidth="1"/>
@@ -1339,12 +1339,12 @@
     <col min="9" max="114" width="10.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A1" s="1">
-        <v>44456.697581018518</v>
+        <v>44491.610081018516</v>
       </c>
     </row>
-    <row r="2" spans="1:268" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:269" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -1354,14 +1354,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
     </row>
-    <row r="4" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -1369,12 +1369,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:269" x14ac:dyDescent="0.2">
       <c r="G5" s="4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
         <v>6</v>
       </c>
@@ -1387,7 +1387,7 @@
       <c r="H7" s="5"/>
       <c r="I7" s="5"/>
     </row>
-    <row r="8" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
         <v>7</v>
       </c>
@@ -2189,11 +2189,14 @@
       <c r="JG8" s="8">
         <v>44378</v>
       </c>
-      <c r="JH8" s="9">
+      <c r="JH8" s="8">
         <v>44409</v>
       </c>
+      <c r="JI8" s="9">
+        <v>44440</v>
+      </c>
     </row>
-    <row r="9" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A9" s="4">
         <v>1</v>
       </c>
@@ -2994,10 +2997,13 @@
         <v>47110</v>
       </c>
       <c r="JH9" s="11">
-        <v>47860</v>
+        <v>47900</v>
+      </c>
+      <c r="JI9" s="11">
+        <v>47730</v>
       </c>
     </row>
-    <row r="10" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A10" s="4">
         <v>2</v>
       </c>
@@ -3798,10 +3804,13 @@
         <v>44390</v>
       </c>
       <c r="JH10" s="11">
-        <v>45230</v>
+        <v>45250</v>
+      </c>
+      <c r="JI10" s="11">
+        <v>45510</v>
       </c>
     </row>
-    <row r="11" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A11" s="4">
         <v>3</v>
       </c>
@@ -4602,10 +4611,13 @@
         <v>2720</v>
       </c>
       <c r="JH11" s="11">
-        <v>2630</v>
+        <v>2650</v>
+      </c>
+      <c r="JI11" s="11">
+        <v>2220</v>
       </c>
     </row>
-    <row r="12" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A12" s="4">
         <v>4</v>
       </c>
@@ -5408,8 +5420,11 @@
       <c r="JH12" s="12">
         <v>5.5E-2</v>
       </c>
+      <c r="JI12" s="12">
+        <v>4.5999999999999999E-2</v>
+      </c>
     </row>
-    <row r="13" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A13" s="4">
         <v>8</v>
       </c>
@@ -6212,8 +6227,11 @@
       <c r="JH13" s="11">
         <v>32060</v>
       </c>
+      <c r="JI13" s="11">
+        <v>31890</v>
+      </c>
     </row>
-    <row r="14" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A14" s="4">
         <v>9</v>
       </c>
@@ -7016,8 +7034,11 @@
       <c r="JH14" s="11">
         <v>150</v>
       </c>
+      <c r="JI14" s="11">
+        <v>150</v>
+      </c>
     </row>
-    <row r="15" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A15" s="4">
         <v>10</v>
       </c>
@@ -7820,8 +7841,11 @@
       <c r="JH15" s="11">
         <v>31910</v>
       </c>
+      <c r="JI15" s="11">
+        <v>31740</v>
+      </c>
     </row>
-    <row r="16" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A16" s="4">
         <v>11</v>
       </c>
@@ -8624,8 +8648,11 @@
       <c r="JH16" s="11">
         <v>25680</v>
       </c>
+      <c r="JI16" s="11">
+        <v>25640</v>
+      </c>
     </row>
-    <row r="17" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A17" s="4">
         <v>12</v>
       </c>
@@ -9428,8 +9455,11 @@
       <c r="JH17" s="11">
         <v>4780</v>
       </c>
+      <c r="JI17" s="11">
+        <v>4740</v>
+      </c>
     </row>
-    <row r="18" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A18" s="4">
         <v>13</v>
       </c>
@@ -10232,8 +10262,11 @@
       <c r="JH18" s="11">
         <v>3480</v>
       </c>
+      <c r="JI18" s="11">
+        <v>3450</v>
+      </c>
     </row>
-    <row r="19" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A19" s="4">
         <v>16</v>
       </c>
@@ -11036,8 +11069,11 @@
       <c r="JH19" s="11">
         <v>1300</v>
       </c>
+      <c r="JI19" s="11">
+        <v>1290</v>
+      </c>
     </row>
-    <row r="20" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A20" s="4">
         <v>17</v>
       </c>
@@ -11840,8 +11876,11 @@
       <c r="JH20" s="11">
         <v>27140</v>
       </c>
+      <c r="JI20" s="11">
+        <v>27000</v>
+      </c>
     </row>
-    <row r="21" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A21" s="4">
         <v>18</v>
       </c>
@@ -12644,8 +12683,11 @@
       <c r="JH21" s="11">
         <v>20910</v>
       </c>
+      <c r="JI21" s="11">
+        <v>20890</v>
+      </c>
     </row>
-    <row r="22" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A22" s="4">
         <v>19</v>
       </c>
@@ -13448,8 +13490,11 @@
       <c r="JH22" s="11">
         <v>5080</v>
       </c>
+      <c r="JI22" s="11">
+        <v>5040</v>
+      </c>
     </row>
-    <row r="23" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A23" s="4">
         <v>20</v>
       </c>
@@ -14252,8 +14297,11 @@
       <c r="JH23" s="11">
         <v>450</v>
       </c>
+      <c r="JI23" s="11">
+        <v>450</v>
+      </c>
     </row>
-    <row r="24" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A24" s="4">
         <v>21</v>
       </c>
@@ -15056,8 +15104,11 @@
       <c r="JH24" s="11">
         <v>4100</v>
       </c>
+      <c r="JI24" s="11">
+        <v>4030</v>
+      </c>
     </row>
-    <row r="25" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A25" s="4">
         <v>22</v>
       </c>
@@ -15860,8 +15911,11 @@
       <c r="JH25" s="11">
         <v>530</v>
       </c>
+      <c r="JI25" s="11">
+        <v>560</v>
+      </c>
     </row>
-    <row r="26" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A26" s="4">
         <v>23</v>
       </c>
@@ -16664,8 +16718,11 @@
       <c r="JH26" s="11">
         <v>200</v>
       </c>
+      <c r="JI26" s="11">
+        <v>210</v>
+      </c>
     </row>
-    <row r="27" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A27" s="4">
         <v>24</v>
       </c>
@@ -17468,8 +17525,11 @@
       <c r="JH27" s="11">
         <v>1310</v>
       </c>
+      <c r="JI27" s="11">
+        <v>1310</v>
+      </c>
     </row>
-    <row r="28" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A28" s="4">
         <v>25</v>
       </c>
@@ -18272,8 +18332,11 @@
       <c r="JH28" s="11">
         <v>2720</v>
       </c>
+      <c r="JI28" s="11">
+        <v>2710</v>
+      </c>
     </row>
-    <row r="29" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A29" s="4">
         <v>26</v>
       </c>
@@ -19076,8 +19139,11 @@
       <c r="JH29" s="11">
         <v>5130</v>
       </c>
+      <c r="JI29" s="11">
+        <v>5130</v>
+      </c>
     </row>
-    <row r="30" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A30" s="4">
         <v>27</v>
       </c>
@@ -19880,8 +19946,11 @@
       <c r="JH30" s="11">
         <v>4550</v>
       </c>
+      <c r="JI30" s="11">
+        <v>4600</v>
+      </c>
     </row>
-    <row r="31" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A31" s="4">
         <v>28</v>
       </c>
@@ -20684,8 +20753,11 @@
       <c r="JH31" s="11">
         <v>1930</v>
       </c>
+      <c r="JI31" s="11">
+        <v>1900</v>
+      </c>
     </row>
-    <row r="32" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A32" s="4">
         <v>29</v>
       </c>
@@ -21488,8 +21560,11 @@
       <c r="JH32" s="11">
         <v>6230</v>
       </c>
+      <c r="JI32" s="11">
+        <v>6110</v>
+      </c>
     </row>
-    <row r="33" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A33" s="4">
         <v>30</v>
       </c>
@@ -22292,8 +22367,11 @@
       <c r="JH33" s="11">
         <v>320</v>
       </c>
+      <c r="JI33" s="11">
+        <v>320</v>
+      </c>
     </row>
-    <row r="34" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A34" s="4">
         <v>31</v>
       </c>
@@ -23096,8 +23174,11 @@
       <c r="JH34" s="11">
         <v>5910</v>
       </c>
+      <c r="JI34" s="11">
+        <v>5790</v>
+      </c>
     </row>
-    <row r="35" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A35" s="4">
         <v>32</v>
       </c>
@@ -23900,8 +23981,11 @@
       <c r="JH35" s="11">
         <v>400</v>
       </c>
+      <c r="JI35" s="11">
+        <v>400</v>
+      </c>
     </row>
-    <row r="36" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A36" s="4">
         <v>33</v>
       </c>
@@ -24704,8 +24788,11 @@
       <c r="JH36" s="11">
         <v>5520</v>
       </c>
+      <c r="JI36" s="11">
+        <v>5400</v>
+      </c>
     </row>
-    <row r="38" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A38" s="15" t="s">
         <v>93</v>
       </c>
@@ -24718,7 +24805,7 @@
       <c r="H38" s="17"/>
       <c r="I38" s="16"/>
     </row>
-    <row r="39" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A39" s="13" t="s">
         <v>15</v>
       </c>
@@ -24731,7 +24818,7 @@
       <c r="H39" s="14"/>
       <c r="I39" s="18"/>
     </row>
-    <row r="40" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A40" s="13" t="s">
         <v>94</v>
       </c>
@@ -24744,7 +24831,7 @@
       <c r="H40" s="14"/>
       <c r="I40" s="18"/>
     </row>
-    <row r="41" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A41" s="13" t="s">
         <v>95</v>
       </c>
@@ -24757,7 +24844,7 @@
       <c r="H41" s="14"/>
       <c r="I41" s="18"/>
     </row>
-    <row r="42" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A42" s="13" t="s">
         <v>96</v>
       </c>
@@ -24770,7 +24857,7 @@
       <c r="H42" s="14"/>
       <c r="I42" s="18"/>
     </row>
-    <row r="43" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A43" s="13" t="s">
         <v>97</v>
       </c>
@@ -24783,7 +24870,7 @@
       <c r="H43" s="14"/>
       <c r="I43" s="18"/>
     </row>
-    <row r="44" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A44" s="13" t="s">
         <v>98</v>
       </c>
@@ -24796,7 +24883,7 @@
       <c r="H44" s="14"/>
       <c r="I44" s="18"/>
     </row>
-    <row r="45" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A45" s="19" t="s">
         <v>99</v>
       </c>

--- a/lowe/edd/data/NEVADHWS.xlsx
+++ b/lowe/edd/data/NEVADHWS.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\LMIDATA AUTOCES\Published Data NAICS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\LMIDATA AUTOCES\Published Data NAICS\Jenny\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13950" windowHeight="6360"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1322,7 +1322,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:JI45"/>
+  <dimension ref="A1:JJ45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1339,12 +1339,12 @@
     <col min="9" max="114" width="10.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A1" s="1">
-        <v>44491.610081018516</v>
+        <v>44519.49428240741</v>
       </c>
     </row>
-    <row r="2" spans="1:269" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:270" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -1354,14 +1354,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
     </row>
-    <row r="4" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -1369,12 +1369,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:270" x14ac:dyDescent="0.2">
       <c r="G5" s="4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
         <v>6</v>
       </c>
@@ -1387,7 +1387,7 @@
       <c r="H7" s="5"/>
       <c r="I7" s="5"/>
     </row>
-    <row r="8" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
         <v>7</v>
       </c>
@@ -2192,11 +2192,14 @@
       <c r="JH8" s="8">
         <v>44409</v>
       </c>
-      <c r="JI8" s="9">
+      <c r="JI8" s="8">
         <v>44440</v>
       </c>
+      <c r="JJ8" s="9">
+        <v>44470</v>
+      </c>
     </row>
-    <row r="9" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A9" s="4">
         <v>1</v>
       </c>
@@ -3000,10 +3003,13 @@
         <v>47900</v>
       </c>
       <c r="JI9" s="11">
-        <v>47730</v>
+        <v>47750</v>
+      </c>
+      <c r="JJ9" s="11">
+        <v>47740</v>
       </c>
     </row>
-    <row r="10" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A10" s="4">
         <v>2</v>
       </c>
@@ -3807,10 +3813,13 @@
         <v>45250</v>
       </c>
       <c r="JI10" s="11">
-        <v>45510</v>
+        <v>45520</v>
+      </c>
+      <c r="JJ10" s="11">
+        <v>45610</v>
       </c>
     </row>
-    <row r="11" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A11" s="4">
         <v>3</v>
       </c>
@@ -4614,10 +4623,13 @@
         <v>2650</v>
       </c>
       <c r="JI11" s="11">
-        <v>2220</v>
+        <v>2230</v>
+      </c>
+      <c r="JJ11" s="11">
+        <v>2140</v>
       </c>
     </row>
-    <row r="12" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A12" s="4">
         <v>4</v>
       </c>
@@ -5421,10 +5433,13 @@
         <v>5.5E-2</v>
       </c>
       <c r="JI12" s="12">
-        <v>4.5999999999999999E-2</v>
+        <v>4.7E-2</v>
+      </c>
+      <c r="JJ12" s="12">
+        <v>4.4999999999999998E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A13" s="4">
         <v>8</v>
       </c>
@@ -6230,8 +6245,11 @@
       <c r="JI13" s="11">
         <v>31890</v>
       </c>
+      <c r="JJ13" s="11">
+        <v>31990</v>
+      </c>
     </row>
-    <row r="14" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A14" s="4">
         <v>9</v>
       </c>
@@ -7037,8 +7055,11 @@
       <c r="JI14" s="11">
         <v>150</v>
       </c>
+      <c r="JJ14" s="11">
+        <v>150</v>
+      </c>
     </row>
-    <row r="15" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A15" s="4">
         <v>10</v>
       </c>
@@ -7844,8 +7865,11 @@
       <c r="JI15" s="11">
         <v>31740</v>
       </c>
+      <c r="JJ15" s="11">
+        <v>31840</v>
+      </c>
     </row>
-    <row r="16" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A16" s="4">
         <v>11</v>
       </c>
@@ -8651,8 +8675,11 @@
       <c r="JI16" s="11">
         <v>25640</v>
       </c>
+      <c r="JJ16" s="11">
+        <v>25620</v>
+      </c>
     </row>
-    <row r="17" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A17" s="4">
         <v>12</v>
       </c>
@@ -9458,8 +9485,11 @@
       <c r="JI17" s="11">
         <v>4740</v>
       </c>
+      <c r="JJ17" s="11">
+        <v>4770</v>
+      </c>
     </row>
-    <row r="18" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A18" s="4">
         <v>13</v>
       </c>
@@ -10265,8 +10295,11 @@
       <c r="JI18" s="11">
         <v>3450</v>
       </c>
+      <c r="JJ18" s="11">
+        <v>3450</v>
+      </c>
     </row>
-    <row r="19" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A19" s="4">
         <v>16</v>
       </c>
@@ -11072,8 +11105,11 @@
       <c r="JI19" s="11">
         <v>1290</v>
       </c>
+      <c r="JJ19" s="11">
+        <v>1320</v>
+      </c>
     </row>
-    <row r="20" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A20" s="4">
         <v>17</v>
       </c>
@@ -11879,8 +11915,11 @@
       <c r="JI20" s="11">
         <v>27000</v>
       </c>
+      <c r="JJ20" s="11">
+        <v>27060</v>
+      </c>
     </row>
-    <row r="21" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A21" s="4">
         <v>18</v>
       </c>
@@ -12686,8 +12725,11 @@
       <c r="JI21" s="11">
         <v>20890</v>
       </c>
+      <c r="JJ21" s="11">
+        <v>20850</v>
+      </c>
     </row>
-    <row r="22" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A22" s="4">
         <v>19</v>
       </c>
@@ -13493,8 +13535,11 @@
       <c r="JI22" s="11">
         <v>5040</v>
       </c>
+      <c r="JJ22" s="11">
+        <v>5020</v>
+      </c>
     </row>
-    <row r="23" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A23" s="4">
         <v>20</v>
       </c>
@@ -14300,8 +14345,11 @@
       <c r="JI23" s="11">
         <v>450</v>
       </c>
+      <c r="JJ23" s="11">
+        <v>460</v>
+      </c>
     </row>
-    <row r="24" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A24" s="4">
         <v>21</v>
       </c>
@@ -15107,8 +15155,11 @@
       <c r="JI24" s="11">
         <v>4030</v>
       </c>
+      <c r="JJ24" s="11">
+        <v>4000</v>
+      </c>
     </row>
-    <row r="25" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A25" s="4">
         <v>22</v>
       </c>
@@ -15914,8 +15965,11 @@
       <c r="JI25" s="11">
         <v>560</v>
       </c>
+      <c r="JJ25" s="11">
+        <v>560</v>
+      </c>
     </row>
-    <row r="26" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A26" s="4">
         <v>23</v>
       </c>
@@ -16721,8 +16775,11 @@
       <c r="JI26" s="11">
         <v>210</v>
       </c>
+      <c r="JJ26" s="11">
+        <v>200</v>
+      </c>
     </row>
-    <row r="27" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A27" s="4">
         <v>24</v>
       </c>
@@ -17528,8 +17585,11 @@
       <c r="JI27" s="11">
         <v>1310</v>
       </c>
+      <c r="JJ27" s="11">
+        <v>1320</v>
+      </c>
     </row>
-    <row r="28" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A28" s="4">
         <v>25</v>
       </c>
@@ -18335,8 +18395,11 @@
       <c r="JI28" s="11">
         <v>2710</v>
       </c>
+      <c r="JJ28" s="11">
+        <v>2720</v>
+      </c>
     </row>
-    <row r="29" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A29" s="4">
         <v>26</v>
       </c>
@@ -19142,8 +19205,11 @@
       <c r="JI29" s="11">
         <v>5130</v>
       </c>
+      <c r="JJ29" s="11">
+        <v>5230</v>
+      </c>
     </row>
-    <row r="30" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A30" s="4">
         <v>27</v>
       </c>
@@ -19949,8 +20015,11 @@
       <c r="JI30" s="11">
         <v>4600</v>
       </c>
+      <c r="JJ30" s="11">
+        <v>4530</v>
+      </c>
     </row>
-    <row r="31" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A31" s="4">
         <v>28</v>
       </c>
@@ -20756,8 +20825,11 @@
       <c r="JI31" s="11">
         <v>1900</v>
       </c>
+      <c r="JJ31" s="11">
+        <v>1840</v>
+      </c>
     </row>
-    <row r="32" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A32" s="4">
         <v>29</v>
       </c>
@@ -21563,8 +21635,11 @@
       <c r="JI32" s="11">
         <v>6110</v>
       </c>
+      <c r="JJ32" s="11">
+        <v>6210</v>
+      </c>
     </row>
-    <row r="33" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A33" s="4">
         <v>30</v>
       </c>
@@ -22370,8 +22445,11 @@
       <c r="JI33" s="11">
         <v>320</v>
       </c>
+      <c r="JJ33" s="11">
+        <v>310</v>
+      </c>
     </row>
-    <row r="34" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A34" s="4">
         <v>31</v>
       </c>
@@ -23177,8 +23255,11 @@
       <c r="JI34" s="11">
         <v>5790</v>
       </c>
+      <c r="JJ34" s="11">
+        <v>5900</v>
+      </c>
     </row>
-    <row r="35" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A35" s="4">
         <v>32</v>
       </c>
@@ -23984,8 +24065,11 @@
       <c r="JI35" s="11">
         <v>400</v>
       </c>
+      <c r="JJ35" s="11">
+        <v>390</v>
+      </c>
     </row>
-    <row r="36" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A36" s="4">
         <v>33</v>
       </c>
@@ -24791,8 +24875,11 @@
       <c r="JI36" s="11">
         <v>5400</v>
       </c>
+      <c r="JJ36" s="11">
+        <v>5510</v>
+      </c>
     </row>
-    <row r="38" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A38" s="15" t="s">
         <v>93</v>
       </c>
@@ -24805,7 +24892,7 @@
       <c r="H38" s="17"/>
       <c r="I38" s="16"/>
     </row>
-    <row r="39" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A39" s="13" t="s">
         <v>15</v>
       </c>
@@ -24818,7 +24905,7 @@
       <c r="H39" s="14"/>
       <c r="I39" s="18"/>
     </row>
-    <row r="40" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A40" s="13" t="s">
         <v>94</v>
       </c>
@@ -24831,7 +24918,7 @@
       <c r="H40" s="14"/>
       <c r="I40" s="18"/>
     </row>
-    <row r="41" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A41" s="13" t="s">
         <v>95</v>
       </c>
@@ -24844,7 +24931,7 @@
       <c r="H41" s="14"/>
       <c r="I41" s="18"/>
     </row>
-    <row r="42" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A42" s="13" t="s">
         <v>96</v>
       </c>
@@ -24857,7 +24944,7 @@
       <c r="H42" s="14"/>
       <c r="I42" s="18"/>
     </row>
-    <row r="43" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A43" s="13" t="s">
         <v>97</v>
       </c>
@@ -24870,7 +24957,7 @@
       <c r="H43" s="14"/>
       <c r="I43" s="18"/>
     </row>
-    <row r="44" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A44" s="13" t="s">
         <v>98</v>
       </c>
@@ -24883,7 +24970,7 @@
       <c r="H44" s="14"/>
       <c r="I44" s="18"/>
     </row>
-    <row r="45" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A45" s="19" t="s">
         <v>99</v>
       </c>

--- a/lowe/edd/data/NEVADHWS.xlsx
+++ b/lowe/edd/data/NEVADHWS.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\LMIDATA AUTOCES\Published Data NAICS\Jenny\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\LMIDATA AUTOCES\Published Data NAICS\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11835"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1322,7 +1322,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:JJ45"/>
+  <dimension ref="A1:JL45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1339,12 +1339,12 @@
     <col min="9" max="114" width="10.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A1" s="1">
-        <v>44519.49428240741</v>
+        <v>44582.472731481481</v>
       </c>
     </row>
-    <row r="2" spans="1:270" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:272" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -1354,14 +1354,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
     </row>
-    <row r="4" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -1369,12 +1369,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:272" x14ac:dyDescent="0.2">
       <c r="G5" s="4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
         <v>6</v>
       </c>
@@ -1387,7 +1387,7 @@
       <c r="H7" s="5"/>
       <c r="I7" s="5"/>
     </row>
-    <row r="8" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
         <v>7</v>
       </c>
@@ -2195,11 +2195,17 @@
       <c r="JI8" s="8">
         <v>44440</v>
       </c>
-      <c r="JJ8" s="9">
+      <c r="JJ8" s="8">
         <v>44470</v>
       </c>
+      <c r="JK8" s="8">
+        <v>44501</v>
+      </c>
+      <c r="JL8" s="9">
+        <v>44531</v>
+      </c>
     </row>
-    <row r="9" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A9" s="4">
         <v>1</v>
       </c>
@@ -3006,10 +3012,16 @@
         <v>47750</v>
       </c>
       <c r="JJ9" s="11">
-        <v>47740</v>
+        <v>47750</v>
+      </c>
+      <c r="JK9" s="11">
+        <v>47880</v>
+      </c>
+      <c r="JL9" s="11">
+        <v>47960</v>
       </c>
     </row>
-    <row r="10" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A10" s="4">
         <v>2</v>
       </c>
@@ -3816,10 +3828,16 @@
         <v>45520</v>
       </c>
       <c r="JJ10" s="11">
-        <v>45610</v>
+        <v>45590</v>
+      </c>
+      <c r="JK10" s="11">
+        <v>45990</v>
+      </c>
+      <c r="JL10" s="11">
+        <v>46190</v>
       </c>
     </row>
-    <row r="11" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A11" s="4">
         <v>3</v>
       </c>
@@ -4626,10 +4644,16 @@
         <v>2230</v>
       </c>
       <c r="JJ11" s="11">
-        <v>2140</v>
+        <v>2160</v>
+      </c>
+      <c r="JK11" s="11">
+        <v>1900</v>
+      </c>
+      <c r="JL11" s="11">
+        <v>1770</v>
       </c>
     </row>
-    <row r="12" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A12" s="4">
         <v>4</v>
       </c>
@@ -5438,8 +5462,14 @@
       <c r="JJ12" s="12">
         <v>4.4999999999999998E-2</v>
       </c>
+      <c r="JK12" s="12">
+        <v>0.04</v>
+      </c>
+      <c r="JL12" s="12">
+        <v>3.6999999999999998E-2</v>
+      </c>
     </row>
-    <row r="13" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A13" s="4">
         <v>8</v>
       </c>
@@ -6248,8 +6278,14 @@
       <c r="JJ13" s="11">
         <v>31990</v>
       </c>
+      <c r="JK13" s="11">
+        <v>32270</v>
+      </c>
+      <c r="JL13" s="11">
+        <v>32700</v>
+      </c>
     </row>
-    <row r="14" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A14" s="4">
         <v>9</v>
       </c>
@@ -7058,8 +7094,14 @@
       <c r="JJ14" s="11">
         <v>150</v>
       </c>
+      <c r="JK14" s="11">
+        <v>130</v>
+      </c>
+      <c r="JL14" s="11">
+        <v>120</v>
+      </c>
     </row>
-    <row r="15" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A15" s="4">
         <v>10</v>
       </c>
@@ -7868,8 +7910,14 @@
       <c r="JJ15" s="11">
         <v>31840</v>
       </c>
+      <c r="JK15" s="11">
+        <v>32140</v>
+      </c>
+      <c r="JL15" s="11">
+        <v>32580</v>
+      </c>
     </row>
-    <row r="16" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A16" s="4">
         <v>11</v>
       </c>
@@ -8678,8 +8726,14 @@
       <c r="JJ16" s="11">
         <v>25620</v>
       </c>
+      <c r="JK16" s="11">
+        <v>26000</v>
+      </c>
+      <c r="JL16" s="11">
+        <v>26630</v>
+      </c>
     </row>
-    <row r="17" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A17" s="4">
         <v>12</v>
       </c>
@@ -9488,8 +9542,14 @@
       <c r="JJ17" s="11">
         <v>4770</v>
       </c>
+      <c r="JK17" s="11">
+        <v>4680</v>
+      </c>
+      <c r="JL17" s="11">
+        <v>4510</v>
+      </c>
     </row>
-    <row r="18" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A18" s="4">
         <v>13</v>
       </c>
@@ -10298,8 +10358,14 @@
       <c r="JJ18" s="11">
         <v>3450</v>
       </c>
+      <c r="JK18" s="11">
+        <v>3360</v>
+      </c>
+      <c r="JL18" s="11">
+        <v>3190</v>
+      </c>
     </row>
-    <row r="19" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A19" s="4">
         <v>16</v>
       </c>
@@ -11108,8 +11174,14 @@
       <c r="JJ19" s="11">
         <v>1320</v>
       </c>
+      <c r="JK19" s="11">
+        <v>1310</v>
+      </c>
+      <c r="JL19" s="11">
+        <v>1330</v>
+      </c>
     </row>
-    <row r="20" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A20" s="4">
         <v>17</v>
       </c>
@@ -11918,8 +11990,14 @@
       <c r="JJ20" s="11">
         <v>27060</v>
       </c>
+      <c r="JK20" s="11">
+        <v>27470</v>
+      </c>
+      <c r="JL20" s="11">
+        <v>28070</v>
+      </c>
     </row>
-    <row r="21" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A21" s="4">
         <v>18</v>
       </c>
@@ -12728,8 +12806,14 @@
       <c r="JJ21" s="11">
         <v>20850</v>
       </c>
+      <c r="JK21" s="11">
+        <v>21320</v>
+      </c>
+      <c r="JL21" s="11">
+        <v>22120</v>
+      </c>
     </row>
-    <row r="22" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A22" s="4">
         <v>19</v>
       </c>
@@ -13538,8 +13622,14 @@
       <c r="JJ22" s="11">
         <v>5020</v>
       </c>
+      <c r="JK22" s="11">
+        <v>5130</v>
+      </c>
+      <c r="JL22" s="11">
+        <v>5250</v>
+      </c>
     </row>
-    <row r="23" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A23" s="4">
         <v>20</v>
       </c>
@@ -14348,8 +14438,14 @@
       <c r="JJ23" s="11">
         <v>460</v>
       </c>
+      <c r="JK23" s="11">
+        <v>460</v>
+      </c>
+      <c r="JL23" s="11">
+        <v>460</v>
+      </c>
     </row>
-    <row r="24" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A24" s="4">
         <v>21</v>
       </c>
@@ -15158,8 +15254,14 @@
       <c r="JJ24" s="11">
         <v>4000</v>
       </c>
+      <c r="JK24" s="11">
+        <v>4090</v>
+      </c>
+      <c r="JL24" s="11">
+        <v>4180</v>
+      </c>
     </row>
-    <row r="25" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A25" s="4">
         <v>22</v>
       </c>
@@ -15968,8 +16070,14 @@
       <c r="JJ25" s="11">
         <v>560</v>
       </c>
+      <c r="JK25" s="11">
+        <v>580</v>
+      </c>
+      <c r="JL25" s="11">
+        <v>610</v>
+      </c>
     </row>
-    <row r="26" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A26" s="4">
         <v>23</v>
       </c>
@@ -16778,8 +16886,14 @@
       <c r="JJ26" s="11">
         <v>200</v>
       </c>
+      <c r="JK26" s="11">
+        <v>220</v>
+      </c>
+      <c r="JL26" s="11">
+        <v>230</v>
+      </c>
     </row>
-    <row r="27" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A27" s="4">
         <v>24</v>
       </c>
@@ -17588,8 +17702,14 @@
       <c r="JJ27" s="11">
         <v>1320</v>
       </c>
+      <c r="JK27" s="11">
+        <v>1320</v>
+      </c>
+      <c r="JL27" s="11">
+        <v>1380</v>
+      </c>
     </row>
-    <row r="28" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A28" s="4">
         <v>25</v>
       </c>
@@ -18398,8 +18518,14 @@
       <c r="JJ28" s="11">
         <v>2720</v>
       </c>
+      <c r="JK28" s="11">
+        <v>2720</v>
+      </c>
+      <c r="JL28" s="11">
+        <v>2630</v>
+      </c>
     </row>
-    <row r="29" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A29" s="4">
         <v>26</v>
       </c>
@@ -19208,8 +19334,14 @@
       <c r="JJ29" s="11">
         <v>5230</v>
       </c>
+      <c r="JK29" s="11">
+        <v>5300</v>
+      </c>
+      <c r="JL29" s="11">
+        <v>5320</v>
+      </c>
     </row>
-    <row r="30" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A30" s="4">
         <v>27</v>
       </c>
@@ -20018,8 +20150,14 @@
       <c r="JJ30" s="11">
         <v>4530</v>
       </c>
+      <c r="JK30" s="11">
+        <v>4800</v>
+      </c>
+      <c r="JL30" s="11">
+        <v>5400</v>
+      </c>
     </row>
-    <row r="31" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A31" s="4">
         <v>28</v>
       </c>
@@ -20828,8 +20966,14 @@
       <c r="JJ31" s="11">
         <v>1840</v>
       </c>
+      <c r="JK31" s="11">
+        <v>1840</v>
+      </c>
+      <c r="JL31" s="11">
+        <v>1910</v>
+      </c>
     </row>
-    <row r="32" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A32" s="4">
         <v>29</v>
       </c>
@@ -21638,8 +21782,14 @@
       <c r="JJ32" s="11">
         <v>6210</v>
       </c>
+      <c r="JK32" s="11">
+        <v>6140</v>
+      </c>
+      <c r="JL32" s="11">
+        <v>5950</v>
+      </c>
     </row>
-    <row r="33" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A33" s="4">
         <v>30</v>
       </c>
@@ -22448,8 +22598,14 @@
       <c r="JJ33" s="11">
         <v>310</v>
       </c>
+      <c r="JK33" s="11">
+        <v>300</v>
+      </c>
+      <c r="JL33" s="11">
+        <v>290</v>
+      </c>
     </row>
-    <row r="34" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A34" s="4">
         <v>31</v>
       </c>
@@ -23258,8 +23414,14 @@
       <c r="JJ34" s="11">
         <v>5900</v>
       </c>
+      <c r="JK34" s="11">
+        <v>5840</v>
+      </c>
+      <c r="JL34" s="11">
+        <v>5660</v>
+      </c>
     </row>
-    <row r="35" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A35" s="4">
         <v>32</v>
       </c>
@@ -24068,8 +24230,14 @@
       <c r="JJ35" s="11">
         <v>390</v>
       </c>
+      <c r="JK35" s="11">
+        <v>380</v>
+      </c>
+      <c r="JL35" s="11">
+        <v>380</v>
+      </c>
     </row>
-    <row r="36" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A36" s="4">
         <v>33</v>
       </c>
@@ -24878,8 +25046,14 @@
       <c r="JJ36" s="11">
         <v>5510</v>
       </c>
+      <c r="JK36" s="11">
+        <v>5460</v>
+      </c>
+      <c r="JL36" s="11">
+        <v>5280</v>
+      </c>
     </row>
-    <row r="38" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A38" s="15" t="s">
         <v>93</v>
       </c>
@@ -24892,7 +25066,7 @@
       <c r="H38" s="17"/>
       <c r="I38" s="16"/>
     </row>
-    <row r="39" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A39" s="13" t="s">
         <v>15</v>
       </c>
@@ -24905,7 +25079,7 @@
       <c r="H39" s="14"/>
       <c r="I39" s="18"/>
     </row>
-    <row r="40" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A40" s="13" t="s">
         <v>94</v>
       </c>
@@ -24918,7 +25092,7 @@
       <c r="H40" s="14"/>
       <c r="I40" s="18"/>
     </row>
-    <row r="41" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A41" s="13" t="s">
         <v>95</v>
       </c>
@@ -24931,7 +25105,7 @@
       <c r="H41" s="14"/>
       <c r="I41" s="18"/>
     </row>
-    <row r="42" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A42" s="13" t="s">
         <v>96</v>
       </c>
@@ -24944,7 +25118,7 @@
       <c r="H42" s="14"/>
       <c r="I42" s="18"/>
     </row>
-    <row r="43" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A43" s="13" t="s">
         <v>97</v>
       </c>
@@ -24957,7 +25131,7 @@
       <c r="H43" s="14"/>
       <c r="I43" s="18"/>
     </row>
-    <row r="44" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A44" s="13" t="s">
         <v>98</v>
       </c>
@@ -24970,7 +25144,7 @@
       <c r="H44" s="14"/>
       <c r="I44" s="18"/>
     </row>
-    <row r="45" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A45" s="19" t="s">
         <v>99</v>
       </c>
